--- a/sputnik/personal/uch/uch151.xlsx
+++ b/sputnik/personal/uch/uch151.xlsx
@@ -59,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +80,13 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -163,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -184,17 +191,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -202,11 +208,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -517,7 +530,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A14"/>
+      <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -545,19 +558,19 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="14">
         <v>43221</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>30905.54</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>43221</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -569,7 +582,7 @@
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="14">
         <v>43221</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -581,7 +594,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="14">
         <v>43221</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -593,7 +606,7 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="14">
         <v>43243</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -605,7 +618,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="14">
         <v>43259</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -617,7 +630,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
         <v>43301</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -629,7 +642,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <v>43312</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -641,7 +654,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="14">
         <v>43334</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -665,7 +678,7 @@
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>43781</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -680,10 +693,10 @@
       <c r="A14" s="16">
         <v>43781</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="18">
         <f>PRODUCT(D13,42,0.001)</f>
         <v>387.76121999999998</v>
       </c>

--- a/sputnik/personal/uch/uch151.xlsx
+++ b/sputnik/personal/uch/uch151.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты на 42 к.д.</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2018/2019</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2017/2018</t>
   </si>
 </sst>
 </file>
@@ -527,10 +533,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -701,6 +707,30 @@
         <v>387.76121999999998</v>
       </c>
       <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>43931</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <v>9365.3700000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>43931</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11">
+        <v>8808.6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch151.xlsx
+++ b/sputnik/personal/uch/uch151.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2017/2018</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -226,6 +229,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -533,10 +538,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C15" sqref="C15:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -715,8 +720,8 @@
       <c r="B15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20">
         <v>9365.3700000000008</v>
       </c>
     </row>
@@ -727,10 +732,46 @@
       <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20">
         <v>8808.6</v>
       </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>43586</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="20">
+        <v>10387.5</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>43952</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="20">
+        <v>10387.5</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch151.xlsx
+++ b/sputnik/personal/uch/uch151.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -538,10 +538,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D20"/>
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -739,10 +739,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C17" s="20">
         <v>10387.5</v>
@@ -750,15 +750,9 @@
       <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>43952</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="20">
-        <v>10387.5</v>
-      </c>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,12 +760,6 @@
       <c r="B19" s="11"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch151.xlsx
+++ b/sputnik/personal/uch/uch151.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -750,10 +753,16 @@
       <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="19">
+        <v>44257</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="D18" s="20">
+        <v>10387.5</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>

--- a/sputnik/personal/uch/uch151.xlsx
+++ b/sputnik/personal/uch/uch151.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Оплачен членский взнос</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -543,8 +546,8 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -765,9 +768,15 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="19">
+        <v>44317</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="20">
+        <v>11077.23</v>
+      </c>
       <c r="D19" s="20"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch151.xlsx
+++ b/sputnik/personal/uch/uch151.xlsx
@@ -107,7 +107,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +117,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -197,23 +221,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -225,9 +237,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -237,6 +246,53 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -546,8 +602,8 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -561,10 +617,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -575,209 +631,209 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="10">
         <v>43221</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>30905.54</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="23">
         <v>43221</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="25">
         <v>8334.93</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="23">
         <v>43221</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="28">
         <v>473.67</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="32">
         <v>43221</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="34">
         <v>9365.3700000000008</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="10">
         <v>43243</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>10.29</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="10">
         <v>43259</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
         <v>11607.79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="10">
         <v>43301</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>11734.84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="10">
         <v>43312</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
         <v>5185.58</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="10">
         <v>43334</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <v>2367.04</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="16">
         <v>43586</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="17">
         <v>9232.41</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="18">
         <v>43781</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11">
+      <c r="C13" s="19"/>
+      <c r="D13" s="17">
         <v>9232.41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="11">
         <v>43781</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="13">
         <f>PRODUCT(D13,42,0.001)</f>
         <v>387.76121999999998</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="32">
         <v>43931</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36">
         <v>9365.3700000000008</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="23">
         <v>43931</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31">
         <v>8808.6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="20">
         <v>43952</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="22">
         <v>10387.5</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="20">
         <v>44257</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22">
         <v>10387.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="14">
         <v>44317</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="15">
         <v>11077.23</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
